--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.48398272709982</v>
+        <v>68.50681433333334</v>
       </c>
       <c r="H2">
-        <v>6.48398272709982</v>
+        <v>205.520443</v>
       </c>
       <c r="I2">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086182</v>
       </c>
       <c r="J2">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.532535146033741</v>
+        <v>0.448495</v>
       </c>
       <c r="N2">
-        <v>0.532535146033741</v>
+        <v>1.345485</v>
       </c>
       <c r="O2">
-        <v>0.06416817252238388</v>
+        <v>0.05033609585745587</v>
       </c>
       <c r="P2">
-        <v>0.06416817252238388</v>
+        <v>0.05033609585745586</v>
       </c>
       <c r="Q2">
-        <v>3.452948688456356</v>
+        <v>30.72496369442834</v>
       </c>
       <c r="R2">
-        <v>3.452948688456356</v>
+        <v>276.524673249855</v>
       </c>
       <c r="S2">
-        <v>0.04730779778570994</v>
+        <v>0.04864412376656639</v>
       </c>
       <c r="T2">
-        <v>0.04730779778570994</v>
+        <v>0.0486441237665664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.48398272709982</v>
+        <v>68.50681433333334</v>
       </c>
       <c r="H3">
-        <v>6.48398272709982</v>
+        <v>205.520443</v>
       </c>
       <c r="I3">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086182</v>
       </c>
       <c r="J3">
-        <v>0.7372470794490444</v>
+        <v>0.9663865053086185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.766519121843</v>
+        <v>0.6116653333333333</v>
       </c>
       <c r="N3">
-        <v>7.766519121843</v>
+        <v>1.834996</v>
       </c>
       <c r="O3">
-        <v>0.9358318274776162</v>
+        <v>0.06864924882406573</v>
       </c>
       <c r="P3">
-        <v>0.9358318274776162</v>
+        <v>0.06864924882406571</v>
       </c>
       <c r="Q3">
-        <v>50.35797583572047</v>
+        <v>41.90324342480311</v>
       </c>
       <c r="R3">
-        <v>50.35797583572047</v>
+        <v>377.129190823228</v>
       </c>
       <c r="S3">
-        <v>0.6899392816633345</v>
+        <v>0.06634170766315065</v>
       </c>
       <c r="T3">
-        <v>0.6899392816633345</v>
+        <v>0.06634170766315065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.15829786012552</v>
+        <v>68.50681433333334</v>
       </c>
       <c r="H4">
-        <v>1.15829786012552</v>
+        <v>205.520443</v>
       </c>
       <c r="I4">
-        <v>0.13170172569099</v>
+        <v>0.9663865053086182</v>
       </c>
       <c r="J4">
-        <v>0.13170172569099</v>
+        <v>0.9663865053086185</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.532535146033741</v>
+        <v>7.849847333333334</v>
       </c>
       <c r="N4">
-        <v>0.532535146033741</v>
+        <v>23.549542</v>
       </c>
       <c r="O4">
-        <v>0.06416817252238388</v>
+        <v>0.8810146553184784</v>
       </c>
       <c r="P4">
-        <v>0.06416817252238388</v>
+        <v>0.8810146553184784</v>
       </c>
       <c r="Q4">
-        <v>0.6168343200925135</v>
+        <v>537.7680338096785</v>
       </c>
       <c r="R4">
-        <v>0.6168343200925135</v>
+        <v>4839.912304287106</v>
       </c>
       <c r="S4">
-        <v>0.00845105905563512</v>
+        <v>0.8514006738789013</v>
       </c>
       <c r="T4">
-        <v>0.00845105905563512</v>
+        <v>0.8514006738789014</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.15829786012552</v>
+        <v>1.228643</v>
       </c>
       <c r="H5">
-        <v>1.15829786012552</v>
+        <v>3.685929</v>
       </c>
       <c r="I5">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849816</v>
       </c>
       <c r="J5">
-        <v>0.13170172569099</v>
+        <v>0.01733176511849817</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>7.766519121843</v>
+        <v>0.448495</v>
       </c>
       <c r="N5">
-        <v>7.766519121843</v>
+        <v>1.345485</v>
       </c>
       <c r="O5">
-        <v>0.9358318274776162</v>
+        <v>0.05033609585745587</v>
       </c>
       <c r="P5">
-        <v>0.9358318274776162</v>
+        <v>0.05033609585745586</v>
       </c>
       <c r="Q5">
-        <v>8.99594247945468</v>
+        <v>0.551040242285</v>
       </c>
       <c r="R5">
-        <v>8.99594247945468</v>
+        <v>4.959362180565</v>
       </c>
       <c r="S5">
-        <v>0.1232506666353548</v>
+        <v>0.0008724133903836335</v>
       </c>
       <c r="T5">
-        <v>0.1232506666353548</v>
+        <v>0.0008724133903836335</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.15257653441344</v>
+        <v>1.228643</v>
       </c>
       <c r="H6">
-        <v>1.15257653441344</v>
+        <v>3.685929</v>
       </c>
       <c r="I6">
-        <v>0.1310511948599656</v>
+        <v>0.01733176511849816</v>
       </c>
       <c r="J6">
-        <v>0.1310511948599656</v>
+        <v>0.01733176511849817</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.532535146033741</v>
+        <v>0.6116653333333333</v>
       </c>
       <c r="N6">
-        <v>0.532535146033741</v>
+        <v>1.834996</v>
       </c>
       <c r="O6">
-        <v>0.06416817252238388</v>
+        <v>0.06864924882406573</v>
       </c>
       <c r="P6">
-        <v>0.06416817252238388</v>
+        <v>0.06864924882406571</v>
       </c>
       <c r="Q6">
-        <v>0.6137875130689243</v>
+        <v>0.7515183301426666</v>
       </c>
       <c r="R6">
-        <v>0.6137875130689243</v>
+        <v>6.763664971283999</v>
       </c>
       <c r="S6">
-        <v>0.008409315681038821</v>
+        <v>0.001189812656180043</v>
       </c>
       <c r="T6">
-        <v>0.008409315681038821</v>
+        <v>0.001189812656180043</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.15257653441344</v>
+        <v>1.228643</v>
       </c>
       <c r="H7">
-        <v>1.15257653441344</v>
+        <v>3.685929</v>
       </c>
       <c r="I7">
-        <v>0.1310511948599656</v>
+        <v>0.01733176511849816</v>
       </c>
       <c r="J7">
-        <v>0.1310511948599656</v>
+        <v>0.01733176511849817</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.766519121843</v>
+        <v>7.849847333333334</v>
       </c>
       <c r="N7">
-        <v>7.766519121843</v>
+        <v>23.549542</v>
       </c>
       <c r="O7">
-        <v>0.9358318274776162</v>
+        <v>0.8810146553184784</v>
       </c>
       <c r="P7">
-        <v>0.9358318274776162</v>
+        <v>0.8810146553184784</v>
       </c>
       <c r="Q7">
-        <v>8.951507693909518</v>
+        <v>9.644659977168667</v>
       </c>
       <c r="R7">
-        <v>8.951507693909518</v>
+        <v>86.80193979451801</v>
       </c>
       <c r="S7">
-        <v>0.1226418791789268</v>
+        <v>0.01526953907193448</v>
       </c>
       <c r="T7">
-        <v>0.1226418791789268</v>
+        <v>0.01526953907193449</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.154206333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.462619</v>
+      </c>
+      <c r="I8">
+        <v>0.01628172957288352</v>
+      </c>
+      <c r="J8">
+        <v>0.01628172957288353</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.448495</v>
+      </c>
+      <c r="N8">
+        <v>1.345485</v>
+      </c>
+      <c r="O8">
+        <v>0.05033609585745587</v>
+      </c>
+      <c r="P8">
+        <v>0.05033609585745586</v>
+      </c>
+      <c r="Q8">
+        <v>0.5176557694683335</v>
+      </c>
+      <c r="R8">
+        <v>4.658901925215</v>
+      </c>
+      <c r="S8">
+        <v>0.0008195587005058391</v>
+      </c>
+      <c r="T8">
+        <v>0.0008195587005058391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.154206333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.462619</v>
+      </c>
+      <c r="I9">
+        <v>0.01628172957288352</v>
+      </c>
+      <c r="J9">
+        <v>0.01628172957288353</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6116653333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.834996</v>
+      </c>
+      <c r="O9">
+        <v>0.06864924882406573</v>
+      </c>
+      <c r="P9">
+        <v>0.06864924882406571</v>
+      </c>
+      <c r="Q9">
+        <v>0.7059880016137778</v>
+      </c>
+      <c r="R9">
+        <v>6.353892014524</v>
+      </c>
+      <c r="S9">
+        <v>0.00111772850473503</v>
+      </c>
+      <c r="T9">
+        <v>0.00111772850473503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.154206333333333</v>
+      </c>
+      <c r="H10">
+        <v>3.462619</v>
+      </c>
+      <c r="I10">
+        <v>0.01628172957288352</v>
+      </c>
+      <c r="J10">
+        <v>0.01628172957288353</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.849847333333334</v>
+      </c>
+      <c r="N10">
+        <v>23.549542</v>
+      </c>
+      <c r="O10">
+        <v>0.8810146553184784</v>
+      </c>
+      <c r="P10">
+        <v>0.8810146553184784</v>
+      </c>
+      <c r="Q10">
+        <v>9.060343507833112</v>
+      </c>
+      <c r="R10">
+        <v>81.54309157049801</v>
+      </c>
+      <c r="S10">
+        <v>0.01434444236764265</v>
+      </c>
+      <c r="T10">
+        <v>0.01434444236764266</v>
       </c>
     </row>
   </sheetData>
